--- a/ДЗ_VK.xlsx
+++ b/ДЗ_VK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Рабочий стол\АгурееваАВ\тестировщик\ДЗ_6.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Рабочий стол\АгурееваАВ\тестировщик\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="128">
   <si>
     <t>passed</t>
   </si>
@@ -546,7 +546,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +662,15 @@
       <color theme="1"/>
       <name val="Calibri (Основной текст)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -766,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -851,6 +860,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -869,36 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1344,10 +1354,10 @@
   <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1391,7 +1401,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="13">
         <f>COUNTIF(L$8:L$44,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="13">
@@ -1436,7 +1446,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="14">
         <f>COUNTIF(L$8:L$44,"passed")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="14">
@@ -1479,7 +1489,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="19"/>
+      <c r="L3" s="19">
+        <v>44349</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="19"/>
       <c r="O3" s="10"/>
@@ -1563,43 +1575,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="44"/>
+      <c r="J6" s="31"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="43"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="43"/>
+      <c r="R6" s="30"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="43"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1609,29 +1621,29 @@
     </row>
     <row r="7" spans="1:26" ht="127.05" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="45"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="43"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="43"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="43"/>
+      <c r="P7" s="30"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="43"/>
+      <c r="R7" s="30"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="43"/>
+      <c r="T7" s="30"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1661,7 +1673,9 @@
       <c r="I8" s="18"/>
       <c r="J8" s="17"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
@@ -1697,7 +1711,9 @@
       <c r="I9" s="24"/>
       <c r="J9" s="17"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1733,7 +1749,9 @@
       <c r="I10" s="18"/>
       <c r="J10" s="17"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="46" t="s">
+        <v>1</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10"/>
@@ -1769,7 +1787,9 @@
       <c r="I11" s="18"/>
       <c r="J11" s="17"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="10"/>
       <c r="N11" s="5"/>
       <c r="O11" s="10"/>
@@ -1805,7 +1825,9 @@
       <c r="I12" s="18"/>
       <c r="J12" s="17"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="5"/>
       <c r="O12" s="10"/>
@@ -1841,7 +1863,9 @@
       <c r="I13" s="18"/>
       <c r="J13" s="17"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="5"/>
       <c r="O13" s="10"/>
@@ -1859,11 +1883,11 @@
     </row>
     <row r="14" spans="1:26" ht="45" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="30">
+      <c r="B14" s="40">
         <v>7</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1877,7 +1901,9 @@
       <c r="I14" s="18"/>
       <c r="J14" s="17"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="10"/>
       <c r="N14" s="5"/>
       <c r="O14" s="10"/>
@@ -1895,9 +1921,9 @@
     </row>
     <row r="15" spans="1:26" ht="57" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="6" t="s">
         <v>30</v>
       </c>
@@ -1909,7 +1935,9 @@
       <c r="I15" s="18"/>
       <c r="J15" s="17"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="5"/>
       <c r="O15" s="10"/>
@@ -1927,9 +1955,9 @@
     </row>
     <row r="16" spans="1:26" ht="45.6" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="6" t="s">
         <v>32</v>
       </c>
@@ -1941,7 +1969,9 @@
       <c r="I16" s="18"/>
       <c r="J16" s="17"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="5"/>
       <c r="O16" s="10"/>
@@ -1959,9 +1989,9 @@
     </row>
     <row r="17" spans="1:26" ht="45.6" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="6" t="s">
         <v>33</v>
       </c>
@@ -1973,7 +2003,9 @@
       <c r="I17" s="18"/>
       <c r="J17" s="17"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="5"/>
       <c r="O17" s="10"/>
@@ -1991,9 +2023,9 @@
     </row>
     <row r="18" spans="1:26" ht="37.200000000000003" customHeight="1">
       <c r="A18" s="11"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="6" t="s">
         <v>36</v>
       </c>
@@ -2005,7 +2037,9 @@
       <c r="I18" s="18"/>
       <c r="J18" s="17"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="10"/>
       <c r="N18" s="5"/>
       <c r="O18" s="10"/>
@@ -2023,11 +2057,11 @@
     </row>
     <row r="19" spans="1:26" ht="95.4" customHeight="1">
       <c r="A19" s="11"/>
-      <c r="B19" s="30">
+      <c r="B19" s="40">
         <v>8</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="40" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -2059,9 +2093,9 @@
     </row>
     <row r="20" spans="1:26" ht="39.6" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="6" t="s">
         <v>50</v>
       </c>
@@ -2091,9 +2125,9 @@
     </row>
     <row r="21" spans="1:26" ht="106.2" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="6" t="s">
         <v>52</v>
       </c>
@@ -3412,6 +3446,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3419,18 +3465,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N44 T8:T44 P8:P44 R8:R44 L8:L44">
